--- a/mallar/Protokoll/trahast/trahastcup-protokoll-lätt klass_lag_typ-1.xlsx
+++ b/mallar/Protokoll/trahast/trahastcup-protokoll-lätt klass_lag_typ-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\trahast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F60EC3-C6FD-479F-9F28-F6237E74DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B6074B-82B6-4BC0-8ADE-F1DE7E12F47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,11 +28,11 @@
     <definedName name="bord" localSheetId="1">'Grund 0 star'!$L$2</definedName>
     <definedName name="bord" localSheetId="2">'Lätt klass lagkür typ 1'!$J$2</definedName>
     <definedName name="datum" localSheetId="1">'Grund 0 star'!$C$5</definedName>
-    <definedName name="datum" localSheetId="2">'Lätt klass lagkür typ 1'!$C$6:$F$6</definedName>
+    <definedName name="datum" localSheetId="2">'Lätt klass lagkür typ 1'!$C$6</definedName>
     <definedName name="domare" localSheetId="1">'Grund 0 star'!$B$45</definedName>
     <definedName name="domare" localSheetId="2">'Lätt klass lagkür typ 1'!$B$40</definedName>
     <definedName name="firstvaulter" localSheetId="1">'Grund 0 star'!$I$6</definedName>
-    <definedName name="firstvaulter" localSheetId="2">'Lätt klass lagkür typ 1'!$I$7:$L$7</definedName>
+    <definedName name="firstvaulter" localSheetId="2">'Lätt klass lagkür typ 1'!$I$7</definedName>
     <definedName name="Hästpoäng" localSheetId="1">'Grund 0 star'!$N$40</definedName>
     <definedName name="Hästpoäng" localSheetId="2">'Lätt klass lagkür typ 1'!$H$17</definedName>
     <definedName name="id" localSheetId="1">'Grund 0 star'!$N$4</definedName>
@@ -40,7 +40,7 @@
     <definedName name="klass" localSheetId="1">'Grund 0 star'!$L$3</definedName>
     <definedName name="klass" localSheetId="2">'Lätt klass lagkür typ 1'!$J$3</definedName>
     <definedName name="moment" localSheetId="1">'Grund 0 star'!$L$4</definedName>
-    <definedName name="moment" localSheetId="2">'Lätt klass lagkür typ 1'!$J$4</definedName>
+    <definedName name="moment" localSheetId="2">'Lätt klass lagkür typ 1'!$A$19</definedName>
     <definedName name="result" localSheetId="1">'Grund 0 star'!$H$36</definedName>
     <definedName name="result" localSheetId="2">'Lätt klass lagkür typ 1'!$K$34</definedName>
   </definedNames>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="96">
   <si>
     <t>Kommentarer</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>Alla protokoll i denna fil hör till Lätt klass lag typ 1.</t>
-  </si>
-  <si>
-    <t>Linförare:</t>
   </si>
   <si>
     <t xml:space="preserve">Lätt klass lag </t>
@@ -1774,34 +1771,33 @@
     <xf numFmtId="170" fontId="16" fillId="0" borderId="40" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1822,23 +1818,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1885,6 +1882,9 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1892,9 +1892,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="9" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -18469,7 +18466,7 @@
     </row>
     <row r="5" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -18479,7 +18476,7 @@
     </row>
     <row r="6" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -18507,21 +18504,21 @@
     </row>
     <row r="9" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="160"/>
       <c r="F9" s="161"/>
     </row>
     <row r="10" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="162"/>
       <c r="F10" s="161"/>
     </row>
     <row r="11" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11"/>
@@ -18535,7 +18532,7 @@
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -18550,7 +18547,7 @@
     </row>
     <row r="20" spans="1:4" s="29" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B20" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>25</v>
@@ -18564,7 +18561,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>43</v>
@@ -18602,7 +18599,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="163"/>
       <c r="C26" s="163"/>
@@ -18616,7 +18613,7 @@
     </row>
     <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A29" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18721,7 +18718,7 @@
     </row>
     <row r="45" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>40</v>
@@ -18730,7 +18727,7 @@
         <v>53</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>32</v>
@@ -18776,7 +18773,7 @@
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -18787,7 +18784,7 @@
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
@@ -18859,8 +18856,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A2" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -18873,35 +18870,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="243" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="H1" s="244" t="s">
+      <c r="A1" s="255" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="H1" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="246"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="258"/>
       <c r="L1" s="144"/>
     </row>
     <row r="2" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="H2" s="244" t="s">
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
+      <c r="H2" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="246"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
+      <c r="K2" s="258"/>
       <c r="L2" s="144"/>
     </row>
     <row r="3" spans="1:12" ht="17.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18911,12 +18908,12 @@
       <c r="D3" s="146"/>
       <c r="E3" s="146"/>
       <c r="F3" s="146"/>
-      <c r="H3" s="244" t="s">
+      <c r="H3" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="246"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="258"/>
       <c r="L3" s="144"/>
     </row>
     <row r="4" spans="1:12" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18954,10 +18951,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
@@ -18970,92 +18967,90 @@
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
       <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="246"/>
     </row>
     <row r="8" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
     </row>
     <row r="9" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
       <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
     </row>
     <row r="10" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="239"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="239"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
       <c r="H10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="241"/>
-      <c r="L10" s="241"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
     </row>
     <row r="11" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
       <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="240"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
     </row>
     <row r="12" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="239"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="239"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="247"/>
+      <c r="L12" s="247"/>
     </row>
     <row r="13" spans="1:12" ht="17.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="109"/>
@@ -19135,11 +19130,11 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="254" t="s">
+      <c r="A20" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="255"/>
-      <c r="C20" s="256"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="242"/>
       <c r="D20" s="110">
         <v>0</v>
       </c>
@@ -19157,11 +19152,11 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="254" t="s">
+      <c r="A21" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="255"/>
-      <c r="C21" s="256"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="242"/>
       <c r="D21" s="110">
         <v>0</v>
       </c>
@@ -19179,11 +19174,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="257" t="s">
+      <c r="A22" s="243" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="258"/>
-      <c r="C22" s="259"/>
+      <c r="B22" s="244"/>
+      <c r="C22" s="245"/>
       <c r="D22" s="110">
         <v>0</v>
       </c>
@@ -19201,11 +19196,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="254" t="s">
+      <c r="A23" s="240" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="255"/>
-      <c r="C23" s="256"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="242"/>
       <c r="D23" s="110">
         <v>0</v>
       </c>
@@ -19223,11 +19218,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="254" t="s">
+      <c r="A24" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="255"/>
-      <c r="C24" s="256"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="242"/>
       <c r="D24" s="110">
         <v>0</v>
       </c>
@@ -19508,13 +19503,6 @@
     <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A2:E2"/>
@@ -19525,18 +19513,25 @@
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19556,7 +19551,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -19565,20 +19560,20 @@
     <col min="2" max="7" width="7.46484375" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.46484375" style="5" customWidth="1"/>
     <col min="9" max="9" width="7.265625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.46484375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.53125" style="5" customWidth="1"/>
     <col min="11" max="11" width="10" style="5" customWidth="1"/>
     <col min="12" max="12" width="7.265625" style="5" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="243" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
+      <c r="A1" s="255" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
       <c r="H1" s="147" t="s">
         <v>30</v>
       </c>
@@ -19588,13 +19583,13 @@
       <c r="L1" s="144"/>
     </row>
     <row r="2" spans="1:12" ht="18.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
+      <c r="B2" s="259"/>
+      <c r="C2" s="259"/>
+      <c r="D2" s="259"/>
+      <c r="E2" s="259"/>
       <c r="H2" s="147" t="s">
         <v>29</v>
       </c>
@@ -19662,14 +19657,14 @@
       <c r="L6" s="250"/>
     </row>
     <row r="7" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="242" t="s">
+      <c r="A7" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
+      <c r="B7" s="272"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
       <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
@@ -19679,111 +19674,109 @@
       <c r="L7" s="249"/>
     </row>
     <row r="8" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="240"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="240"/>
+      <c r="B8" s="272"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
       <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="240"/>
-      <c r="J8" s="240"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="240"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
     </row>
     <row r="9" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="242" t="s">
+      <c r="A9" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="242"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
+      <c r="B9" s="272"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
       <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="240"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
     </row>
     <row r="10" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="242" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="242"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
+      <c r="A10" s="272" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="272"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="240"/>
-      <c r="J10" s="240"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="240"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
     </row>
     <row r="11" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="239"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
+      <c r="A11" s="247"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
       <c r="H11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="241"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="241"/>
-      <c r="L11" s="241"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="254"/>
     </row>
     <row r="12" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="239" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="239"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="239"/>
+      <c r="A12" s="247"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="247"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
       <c r="H12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="240"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="240"/>
-      <c r="L12" s="240"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
     </row>
     <row r="13" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="239"/>
-      <c r="J13" s="239"/>
-      <c r="K13" s="239"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="247"/>
     </row>
     <row r="14" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="240"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="240"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="246"/>
+      <c r="K14" s="246"/>
     </row>
     <row r="15" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="240"/>
-      <c r="J15" s="240"/>
-      <c r="K15" s="240"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="246"/>
     </row>
     <row r="16" spans="1:12" ht="18.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="136"/>
@@ -20059,13 +20052,13 @@
       <c r="K38" s="24"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="276" t="s">
+      <c r="A40" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="276"/>
-      <c r="C40" s="276"/>
-      <c r="D40" s="276"/>
-      <c r="E40" s="276"/>
+      <c r="B40" s="239"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="239"/>
+      <c r="E40" s="239"/>
       <c r="G40" s="2" t="s">
         <v>17</v>
       </c>
@@ -20090,10 +20083,6 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I8:L8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="I9:L9"/>
@@ -20112,6 +20101,10 @@
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="K27:K38">
     <cfRule type="cellIs" dxfId="384" priority="3" operator="equal">
@@ -20125,7 +20118,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;C&amp;"Verdana,Normal"&amp;12PROTOKOLL FÖR LÄTT KLASS - TRÄHÄST</oddHeader>
     <oddFooter>&amp;R2021-11-23</oddFooter>
@@ -20163,24 +20156,24 @@
       <c r="A1" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
       <c r="D1" s="115"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
       <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="115"/>
     </row>
     <row r="4" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -24015,24 +24008,24 @@
       <c r="A1" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
       <c r="D1" s="115"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
       <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
       <c r="D3" s="115"/>
     </row>
     <row r="4" spans="1:15" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -27689,24 +27682,24 @@
       <c r="A1" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
       <c r="D1" s="165"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
       <c r="D2" s="165"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="274"/>
-      <c r="C3" s="274"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
       <c r="D3" s="165"/>
     </row>
     <row r="4" spans="1:14" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -27779,13 +27772,13 @@
         <v>25</v>
       </c>
       <c r="H7" s="183" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="183" t="s">
-        <v>94</v>
-      </c>
       <c r="J7" s="183" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K7" s="184" t="s">
         <v>70</v>
@@ -27850,7 +27843,7 @@
         <v/>
       </c>
       <c r="B11" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="211">
         <v>1</v>
@@ -27888,7 +27881,7 @@
         <v/>
       </c>
       <c r="B12" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="167">
         <v>2</v>
@@ -27926,7 +27919,7 @@
         <v/>
       </c>
       <c r="B13" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="167">
         <v>3</v>
@@ -27959,7 +27952,7 @@
         <v/>
       </c>
       <c r="B14" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="207">
         <v>4</v>
@@ -27994,7 +27987,7 @@
         <v/>
       </c>
       <c r="B15" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="211">
         <v>1</v>
@@ -28032,7 +28025,7 @@
         <v/>
       </c>
       <c r="B16" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="167">
         <v>2</v>
@@ -28070,7 +28063,7 @@
         <v/>
       </c>
       <c r="B17" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="167">
         <v>3</v>
@@ -28106,7 +28099,7 @@
         <v/>
       </c>
       <c r="B18" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="207">
         <v>4</v>
@@ -28144,7 +28137,7 @@
         <v/>
       </c>
       <c r="B19" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="211">
         <v>1</v>
@@ -28182,7 +28175,7 @@
         <v/>
       </c>
       <c r="B20" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="167">
         <v>2</v>
@@ -28220,7 +28213,7 @@
         <v/>
       </c>
       <c r="B21" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="167">
         <v>3</v>
@@ -28256,7 +28249,7 @@
         <v/>
       </c>
       <c r="B22" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="207">
         <v>4</v>
@@ -28294,7 +28287,7 @@
         <v/>
       </c>
       <c r="B23" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="211">
         <v>1</v>
@@ -28332,7 +28325,7 @@
         <v/>
       </c>
       <c r="B24" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="167">
         <v>2</v>
@@ -28370,7 +28363,7 @@
         <v/>
       </c>
       <c r="B25" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="167">
         <v>3</v>
@@ -28406,7 +28399,7 @@
         <v/>
       </c>
       <c r="B26" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="207">
         <v>4</v>
@@ -28444,7 +28437,7 @@
         <v/>
       </c>
       <c r="B27" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="211">
         <v>1</v>
@@ -28482,7 +28475,7 @@
         <v/>
       </c>
       <c r="B28" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="167">
         <v>2</v>
@@ -28520,7 +28513,7 @@
         <v/>
       </c>
       <c r="B29" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="167">
         <v>3</v>
@@ -28556,7 +28549,7 @@
         <v/>
       </c>
       <c r="B30" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="207">
         <v>4</v>
@@ -28594,7 +28587,7 @@
         <v/>
       </c>
       <c r="B31" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="211">
         <v>1</v>
@@ -28632,7 +28625,7 @@
         <v/>
       </c>
       <c r="B32" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="167">
         <v>2</v>
@@ -28670,7 +28663,7 @@
         <v/>
       </c>
       <c r="B33" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="167">
         <v>3</v>
@@ -28706,7 +28699,7 @@
         <v/>
       </c>
       <c r="B34" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="207">
         <v>4</v>
@@ -28744,7 +28737,7 @@
         <v/>
       </c>
       <c r="B35" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="211">
         <v>1</v>
@@ -28782,7 +28775,7 @@
         <v/>
       </c>
       <c r="B36" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="167">
         <v>2</v>
@@ -28820,7 +28813,7 @@
         <v/>
       </c>
       <c r="B37" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="167">
         <v>3</v>
@@ -28856,7 +28849,7 @@
         <v/>
       </c>
       <c r="B38" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="207">
         <v>4</v>
@@ -28894,7 +28887,7 @@
         <v/>
       </c>
       <c r="B39" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="211">
         <v>1</v>
@@ -28932,7 +28925,7 @@
         <v/>
       </c>
       <c r="B40" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="167">
         <v>2</v>
@@ -28970,7 +28963,7 @@
         <v/>
       </c>
       <c r="B41" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="167">
         <v>3</v>
@@ -29006,7 +28999,7 @@
         <v/>
       </c>
       <c r="B42" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="207">
         <v>4</v>
@@ -29044,7 +29037,7 @@
         <v/>
       </c>
       <c r="B43" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="211">
         <v>1</v>
@@ -29082,7 +29075,7 @@
         <v/>
       </c>
       <c r="B44" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="167">
         <v>2</v>
@@ -29120,7 +29113,7 @@
         <v/>
       </c>
       <c r="B45" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="167">
         <v>3</v>
@@ -29156,7 +29149,7 @@
         <v/>
       </c>
       <c r="B46" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="207">
         <v>4</v>
@@ -29194,7 +29187,7 @@
         <v/>
       </c>
       <c r="B47" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="211">
         <v>1</v>
@@ -29232,7 +29225,7 @@
         <v/>
       </c>
       <c r="B48" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="167">
         <v>2</v>
@@ -29270,7 +29263,7 @@
         <v/>
       </c>
       <c r="B49" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="167">
         <v>3</v>
@@ -29306,7 +29299,7 @@
         <v/>
       </c>
       <c r="B50" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="207">
         <v>4</v>
@@ -29344,7 +29337,7 @@
         <v/>
       </c>
       <c r="B51" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="211">
         <v>1</v>
@@ -29382,7 +29375,7 @@
         <v/>
       </c>
       <c r="B52" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="167">
         <v>2</v>
@@ -29420,7 +29413,7 @@
         <v/>
       </c>
       <c r="B53" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="167">
         <v>3</v>
@@ -29456,7 +29449,7 @@
         <v/>
       </c>
       <c r="B54" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="207">
         <v>4</v>
@@ -29494,7 +29487,7 @@
         <v/>
       </c>
       <c r="B55" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" s="211">
         <v>1</v>
@@ -29532,7 +29525,7 @@
         <v/>
       </c>
       <c r="B56" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="167">
         <v>2</v>
@@ -29570,7 +29563,7 @@
         <v/>
       </c>
       <c r="B57" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="167">
         <v>3</v>
@@ -29606,7 +29599,7 @@
         <v/>
       </c>
       <c r="B58" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="207">
         <v>4</v>
@@ -29644,7 +29637,7 @@
         <v/>
       </c>
       <c r="B59" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" s="211">
         <v>1</v>
@@ -29682,7 +29675,7 @@
         <v/>
       </c>
       <c r="B60" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C60" s="167">
         <v>2</v>
@@ -29720,7 +29713,7 @@
         <v/>
       </c>
       <c r="B61" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="167">
         <v>3</v>
@@ -29756,7 +29749,7 @@
         <v/>
       </c>
       <c r="B62" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" s="207">
         <v>4</v>
@@ -29794,7 +29787,7 @@
         <v/>
       </c>
       <c r="B63" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="211">
         <v>1</v>
@@ -29832,7 +29825,7 @@
         <v/>
       </c>
       <c r="B64" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="167">
         <v>2</v>
@@ -29870,7 +29863,7 @@
         <v/>
       </c>
       <c r="B65" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="167">
         <v>3</v>
@@ -29906,7 +29899,7 @@
         <v/>
       </c>
       <c r="B66" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="207">
         <v>4</v>
@@ -29944,7 +29937,7 @@
         <v/>
       </c>
       <c r="B67" s="211" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="211">
         <v>1</v>
@@ -29982,7 +29975,7 @@
         <v/>
       </c>
       <c r="B68" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="167">
         <v>2</v>
@@ -30020,7 +30013,7 @@
         <v/>
       </c>
       <c r="B69" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="167">
         <v>3</v>
@@ -30056,7 +30049,7 @@
         <v/>
       </c>
       <c r="B70" s="207" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="207">
         <v>4</v>
